--- a/data.xlsx
+++ b/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="questionnaire_junction" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="questionnaire_questionnaires" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="questionnaire_questions" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="questionnaire_questionnaires" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="questionnaire_questions" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="questionnaire_junction" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,15 +16,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>question_id</t>
-  </si>
-  <si>
-    <t>questionnaire_id</t>
-  </si>
-  <si>
-    <t>priority</t>
   </si>
   <si>
     <t>title</t>
@@ -99,6 +90,15 @@
   "type": "input",
   "question": "Please list any new medications you are taking."
  }</t>
+  </si>
+  <si>
+    <t>question_id</t>
+  </si>
+  <si>
+    <t>questionnaire_id</t>
+  </si>
+  <si>
+    <t>priority</t>
   </si>
 </sst>
 </file>
@@ -373,142 +373,40 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.0</v>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>10.0</v>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>20.0</v>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>20.0</v>
-      </c>
-    </row>
+    <row r="5" ht="15.75" customHeight="1"/>
+    <row r="6" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1"/>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -1514,15 +1412,17 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="12.63"/>
+    <col customWidth="1" min="1" max="1" width="12.63"/>
+    <col customWidth="1" min="2" max="2" width="62.13"/>
+    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -1530,7 +1430,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -1538,7 +1438,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -1546,12 +1446,33 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="8" ht="15.75" customHeight="1"/>
     <row r="9" ht="15.75" customHeight="1"/>
     <row r="10" ht="15.75" customHeight="1"/>
@@ -2560,9 +2481,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.63"/>
-    <col customWidth="1" min="2" max="2" width="62.13"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -2570,60 +2489,141 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
+      <c r="B2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
+      <c r="B3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
+      <c r="B4" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>4.0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
+      <c r="B5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>5.0</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
+      <c r="B6" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>6.0</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
+      <c r="B7" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20.0</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1"/>
     <row r="13" ht="15.75" customHeight="1"/>
